--- a/data/other_sports_facilities/data.xlsx
+++ b/data/other_sports_facilities/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -597,22 +597,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>34.35409639</v>
+        <v>34.3845802</v>
       </c>
       <c r="C6" t="str">
-        <v>134.0454578</v>
+        <v>134.1346368</v>
       </c>
       <c r="D6" t="str">
-        <v>サンポートスケートパーク  SUSPA</v>
+        <v>高松市庵治ゲートボール場</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市サンポート5</v>
+        <v>高松市庵治町1667番地1</v>
       </c>
       <c r="F6" t="str">
-        <v>087-839-2445</v>
+        <v>087-845-7060</v>
       </c>
       <c r="G6" t="str">
-        <v>http://www.city.takamatsu.kagawa.jp/kurashi/kurashi/shisetsu/sports/sasupa.html</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -624,7 +624,7 @@
         <v>09:00</v>
       </c>
       <c r="K6" t="str">
-        <v>22:00</v>
+        <v>21:00</v>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -635,16 +635,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>34.3845802</v>
+        <v>34.3787</v>
       </c>
       <c r="C7" t="str">
-        <v>134.1346368</v>
+        <v>134.138343</v>
       </c>
       <c r="D7" t="str">
-        <v>高松市庵治ゲートボール場</v>
+        <v>高松市庵治ペタンク場</v>
       </c>
       <c r="E7" t="str">
-        <v>高松市庵治町1667番地1</v>
+        <v>高松市庵治町3836番地</v>
       </c>
       <c r="F7" t="str">
         <v>087-845-7060</v>
@@ -659,13 +659,13 @@
         <v>月火水木金土日</v>
       </c>
       <c r="J7" t="str">
-        <v>09:00</v>
+        <v/>
       </c>
       <c r="K7" t="str">
-        <v>21:00</v>
+        <v/>
       </c>
       <c r="L7" t="str">
-        <v/>
+        <v>利用可能時間は日出から日没まで</v>
       </c>
     </row>
     <row r="8">
@@ -673,80 +673,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.3787</v>
+        <v>34.271497</v>
       </c>
       <c r="C8" t="str">
-        <v>134.138343</v>
+        <v>133.950865</v>
       </c>
       <c r="D8" t="str">
-        <v>高松市庵治ペタンク場</v>
+        <v>高松市国分寺橘ノ丘総合運動公園はくちょう温泉</v>
       </c>
       <c r="E8" t="str">
-        <v>高松市庵治町3836番地</v>
+        <v>高松市国分寺町新名2213番地1</v>
       </c>
       <c r="F8" t="str">
-        <v>087-845-7060</v>
+        <v>087-874-8900</v>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>http://www.taka-spo.or.jp/hak1.html</v>
       </c>
       <c r="H8" t="str">
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>月火水木金土日</v>
+        <v>火水木金土日</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>10:00</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>20:00</v>
       </c>
       <c r="L8" t="str">
-        <v>利用可能時間は日出から日没まで</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>34.271497</v>
-      </c>
-      <c r="C9" t="str">
-        <v>133.950865</v>
-      </c>
-      <c r="D9" t="str">
-        <v>高松市国分寺橘ノ丘総合運動公園はくちょう温泉</v>
-      </c>
-      <c r="E9" t="str">
-        <v>高松市国分寺町新名2213番地1</v>
-      </c>
-      <c r="F9" t="str">
-        <v>087-874-4311</v>
-      </c>
-      <c r="G9" t="str">
-        <v>http://www.taka-spo.or.jp/hak1.html</v>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v>火水木金土日</v>
-      </c>
-      <c r="J9" t="str">
-        <v>10:00</v>
-      </c>
-      <c r="K9" t="str">
-        <v>20:00</v>
-      </c>
-      <c r="L9" t="str">
-        <v/>
+        <v>足湯は10：00から日没まで</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>